--- a/Code/Results/Cases/Case_1_90/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_90/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.389901333080303</v>
+        <v>0.8322655858124506</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.004848700918561377</v>
+        <v>0.00466880969363892</v>
       </c>
       <c r="E2">
-        <v>1.076100366457183</v>
+        <v>0.5789671946912733</v>
       </c>
       <c r="F2">
-        <v>1.802320932107264</v>
+        <v>0.9090700550331974</v>
       </c>
       <c r="G2">
-        <v>1.922028713728622</v>
+        <v>0.8196547599940516</v>
       </c>
       <c r="H2">
-        <v>0.9600010243909765</v>
+        <v>0.7153065298483909</v>
       </c>
       <c r="I2">
-        <v>0.2569542662301423</v>
+        <v>0.7897106584390654</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6798563587621516</v>
+        <v>0.2820181567121693</v>
       </c>
       <c r="M2">
-        <v>0.4793152545994914</v>
+        <v>0.2429056420267983</v>
       </c>
       <c r="N2">
-        <v>1.16213025730913</v>
+        <v>1.534823580371238</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.213659574016901</v>
+        <v>0.783107803365084</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004269199014700575</v>
+        <v>0.004660741958552705</v>
       </c>
       <c r="E3">
-        <v>0.961397594374418</v>
+        <v>0.5445172120720798</v>
       </c>
       <c r="F3">
-        <v>1.561732660174187</v>
+        <v>0.8547575287720264</v>
       </c>
       <c r="G3">
-        <v>1.657976721127739</v>
+        <v>0.7577624574712445</v>
       </c>
       <c r="H3">
-        <v>0.842923192891476</v>
+        <v>0.6923911283652444</v>
       </c>
       <c r="I3">
-        <v>0.2800736809292061</v>
+        <v>0.8033681632161898</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5888612255125736</v>
+        <v>0.257329694569421</v>
       </c>
       <c r="M3">
-        <v>0.4169521434531944</v>
+        <v>0.225739417751349</v>
       </c>
       <c r="N3">
-        <v>1.153809226534207</v>
+        <v>1.535672379390149</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.106037372534104</v>
+        <v>0.7531503350731725</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003959319157569752</v>
+        <v>0.004663326268536494</v>
       </c>
       <c r="E4">
-        <v>0.8914548522525365</v>
+        <v>0.5232130336073624</v>
       </c>
       <c r="F4">
-        <v>1.417765809755579</v>
+        <v>0.8221097482335011</v>
       </c>
       <c r="G4">
-        <v>1.499903837154193</v>
+        <v>0.7203873233417255</v>
       </c>
       <c r="H4">
-        <v>0.7732007345352088</v>
+        <v>0.6788620256523643</v>
       </c>
       <c r="I4">
-        <v>0.2951659232779118</v>
+        <v>0.8122311290833917</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5335610278739438</v>
+        <v>0.2422605457202138</v>
       </c>
       <c r="M4">
-        <v>0.3789451662210865</v>
+        <v>0.2152721607178805</v>
       </c>
       <c r="N4">
-        <v>1.149857359224058</v>
+        <v>1.536788252829467</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.062306689364419</v>
+        <v>0.7409998991072939</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003843194169146358</v>
+        <v>0.004666244512929296</v>
       </c>
       <c r="E5">
-        <v>0.8630438993310463</v>
+        <v>0.5144931407772759</v>
       </c>
       <c r="F5">
-        <v>1.359925327533148</v>
+        <v>0.8089797074441236</v>
       </c>
       <c r="G5">
-        <v>1.436376572762157</v>
+        <v>0.7053120244728746</v>
       </c>
       <c r="H5">
-        <v>0.7452706739502162</v>
+        <v>0.6734839374936996</v>
       </c>
       <c r="I5">
-        <v>0.3015334782268848</v>
+        <v>0.8159627345177549</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5111474949016497</v>
+        <v>0.2361422577095738</v>
       </c>
       <c r="M5">
-        <v>0.3635177071128055</v>
+        <v>0.2110251354267731</v>
       </c>
       <c r="N5">
-        <v>1.148530778203039</v>
+        <v>1.537393068067516</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.055052246336999</v>
+        <v>0.7389858218823235</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003824486751550893</v>
+        <v>0.004666840850314102</v>
       </c>
       <c r="E6">
-        <v>0.8583309571197972</v>
+        <v>0.5130428949890131</v>
       </c>
       <c r="F6">
-        <v>1.350367681954125</v>
+        <v>0.806809939610929</v>
       </c>
       <c r="G6">
-        <v>1.425877969689225</v>
+        <v>0.7028181000219149</v>
       </c>
       <c r="H6">
-        <v>0.7406603402625649</v>
+        <v>0.6725990449261303</v>
       </c>
       <c r="I6">
-        <v>0.3026037028490096</v>
+        <v>0.8165896013583485</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5074324926048064</v>
+        <v>0.2351276794387331</v>
       </c>
       <c r="M6">
-        <v>0.360959356200766</v>
+        <v>0.2103210397090436</v>
       </c>
       <c r="N6">
-        <v>1.148327442169176</v>
+        <v>1.53750257823539</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.105447122417473</v>
+        <v>0.7529862363427071</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003957713688601316</v>
+        <v>0.004663358113329963</v>
       </c>
       <c r="E7">
-        <v>0.8910713609189855</v>
+        <v>0.5230955891507136</v>
       </c>
       <c r="F7">
-        <v>1.416982551178364</v>
+        <v>0.8219319691251314</v>
       </c>
       <c r="G7">
-        <v>1.499043653192103</v>
+        <v>0.7201833865125877</v>
       </c>
       <c r="H7">
-        <v>0.7728221844518828</v>
+        <v>0.6787889489579015</v>
       </c>
       <c r="I7">
-        <v>0.2952509287870457</v>
+        <v>0.8122809696150544</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5332582857889321</v>
+        <v>0.2421779412406551</v>
       </c>
       <c r="M7">
-        <v>0.3787368739908175</v>
+        <v>0.2152148088891437</v>
       </c>
       <c r="N7">
-        <v>1.149838328395433</v>
+        <v>1.536795801158391</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.32899645957832</v>
+        <v>0.8152695859491246</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004638467207371377</v>
+        <v>0.004664445081456137</v>
       </c>
       <c r="E8">
-        <v>1.036430578734809</v>
+        <v>0.5671202595685401</v>
       </c>
       <c r="F8">
-        <v>1.71851291003864</v>
+        <v>0.8901965716210896</v>
       </c>
       <c r="G8">
-        <v>1.830059080633475</v>
+        <v>0.7981827604934324</v>
       </c>
       <c r="H8">
-        <v>0.9191446233530769</v>
+        <v>0.7072924406344896</v>
       </c>
       <c r="I8">
-        <v>0.2647346407499303</v>
+        <v>0.7943206509173732</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6483489079297158</v>
+        <v>0.2734869345614328</v>
       </c>
       <c r="M8">
-        <v>0.4577466815050002</v>
+        <v>0.2369716819273222</v>
       </c>
       <c r="N8">
-        <v>1.159016514987144</v>
+        <v>1.534993135342262</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.773190920206815</v>
+        <v>0.939171220586644</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006409418887376006</v>
+        <v>0.004727769982135754</v>
       </c>
       <c r="E9">
-        <v>1.326917719427655</v>
+        <v>0.6522575607046974</v>
       </c>
       <c r="F9">
-        <v>2.345492786171164</v>
+        <v>1.029714146113022</v>
       </c>
       <c r="G9">
-        <v>2.517956285983672</v>
+        <v>0.9562260061970278</v>
       </c>
       <c r="H9">
-        <v>1.226351608960073</v>
+        <v>0.7675261763798176</v>
       </c>
       <c r="I9">
-        <v>0.2124003720992835</v>
+        <v>0.7628918429592026</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8796744504687126</v>
+        <v>0.3356003118632316</v>
       </c>
       <c r="M9">
-        <v>0.615482008846854</v>
+        <v>0.2802112171940792</v>
       </c>
       <c r="N9">
-        <v>1.186545692264531</v>
+        <v>1.536154608198061</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.104847999727326</v>
+        <v>1.031252393707121</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.008091524117791238</v>
+        <v>0.004813535364398547</v>
       </c>
       <c r="E10">
-        <v>1.546230312410913</v>
+        <v>0.714098226033272</v>
       </c>
       <c r="F10">
-        <v>2.837140425866863</v>
+        <v>1.135804447183034</v>
       </c>
       <c r="G10">
-        <v>3.057372053833802</v>
+        <v>1.075608514509952</v>
       </c>
       <c r="H10">
-        <v>1.469293216413035</v>
+        <v>0.814493605582129</v>
       </c>
       <c r="I10">
-        <v>0.1791137583824334</v>
+        <v>0.742118425336395</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.05479453145324</v>
+        <v>0.3816839008875093</v>
       </c>
       <c r="M10">
-        <v>0.7339255824865418</v>
+        <v>0.312327830058436</v>
       </c>
       <c r="N10">
-        <v>1.213103381284768</v>
+        <v>1.539843567417293</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.257326989534988</v>
+        <v>1.073366075168735</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.008970601642712239</v>
+        <v>0.004861496786407571</v>
       </c>
       <c r="E11">
-        <v>1.647976040597754</v>
+        <v>0.7420815639944749</v>
       </c>
       <c r="F11">
-        <v>3.069946152650942</v>
+        <v>1.184878013289932</v>
       </c>
       <c r="G11">
-        <v>3.312858385497378</v>
+        <v>1.130665385245834</v>
       </c>
       <c r="H11">
-        <v>1.584828724168716</v>
+        <v>0.8364649156988264</v>
       </c>
       <c r="I11">
-        <v>0.1652359718235701</v>
+        <v>0.7331725372843154</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.136030145989309</v>
+        <v>0.402748958035346</v>
       </c>
       <c r="M11">
-        <v>0.788581271547848</v>
+        <v>0.3270140998094249</v>
       </c>
       <c r="N11">
-        <v>1.226685426085538</v>
+        <v>1.542131968117701</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.315339611158606</v>
+        <v>1.089345262696213</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.009322996688307938</v>
+        <v>0.004880979987280654</v>
       </c>
       <c r="E12">
-        <v>1.686858567310068</v>
+        <v>0.7526570495825951</v>
       </c>
       <c r="F12">
-        <v>3.159654225871208</v>
+        <v>1.20358009027737</v>
       </c>
       <c r="G12">
-        <v>3.411320767687414</v>
+        <v>1.151624499239858</v>
       </c>
       <c r="H12">
-        <v>1.629424840646863</v>
+        <v>0.8448731117883312</v>
       </c>
       <c r="I12">
-        <v>0.160176106658299</v>
+        <v>0.7298575782917007</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.167061079443414</v>
+        <v>0.4107404674194584</v>
       </c>
       <c r="M12">
-        <v>0.8094100767658361</v>
+        <v>0.3325862918456366</v>
       </c>
       <c r="N12">
-        <v>1.232055628448478</v>
+        <v>1.543085802645749</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.302832742743306</v>
+        <v>1.085902463378602</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.009246178913979719</v>
+        <v>0.004876724609626848</v>
       </c>
       <c r="E13">
-        <v>1.678467568233245</v>
+        <v>0.7503803701751934</v>
       </c>
       <c r="F13">
-        <v>3.140260990587649</v>
+        <v>1.199546937291387</v>
       </c>
       <c r="G13">
-        <v>3.390034259523617</v>
+        <v>1.147105633895649</v>
       </c>
       <c r="H13">
-        <v>1.619780515562752</v>
+        <v>0.8430583194244434</v>
       </c>
       <c r="I13">
-        <v>0.1612569208635408</v>
+        <v>0.7305682799032978</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.160365317285738</v>
+        <v>0.4090187014246567</v>
       </c>
       <c r="M13">
-        <v>0.804918001533693</v>
+        <v>0.3313857416469901</v>
       </c>
       <c r="N13">
-        <v>1.230888778089678</v>
+        <v>1.542876503804166</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.262094015294167</v>
+        <v>1.074680062643154</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.008999182603783851</v>
+        <v>0.004863073000390017</v>
       </c>
       <c r="E14">
-        <v>1.65116740571726</v>
+        <v>0.7429520396206613</v>
       </c>
       <c r="F14">
-        <v>3.077293977050374</v>
+        <v>1.186414247500096</v>
       </c>
       <c r="G14">
-        <v>3.320922930716421</v>
+        <v>1.13238747949697</v>
       </c>
       <c r="H14">
-        <v>1.588479961372144</v>
+        <v>0.8371548905508064</v>
       </c>
       <c r="I14">
-        <v>0.1648156962200948</v>
+        <v>0.7328983565048155</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.138577427973502</v>
+        <v>0.4034061308350658</v>
       </c>
       <c r="M14">
-        <v>0.790292100303013</v>
+        <v>0.3274723113717073</v>
       </c>
       <c r="N14">
-        <v>1.227122620113988</v>
+        <v>1.542208694476244</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.237177114675376</v>
+        <v>1.067810117055501</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.00885053262753388</v>
+        <v>0.004854884100872425</v>
       </c>
       <c r="E15">
-        <v>1.634493564804046</v>
+        <v>0.7383992160962123</v>
       </c>
       <c r="F15">
-        <v>3.03893416254229</v>
+        <v>1.178385654706375</v>
       </c>
       <c r="G15">
-        <v>3.278822052524106</v>
+        <v>1.123386621517682</v>
       </c>
       <c r="H15">
-        <v>1.569421520071643</v>
+        <v>0.8335503795782984</v>
       </c>
       <c r="I15">
-        <v>0.1670214138924608</v>
+        <v>0.7343350626670571</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.125268082837835</v>
+        <v>0.3999701759758523</v>
       </c>
       <c r="M15">
-        <v>0.7813511397136423</v>
+        <v>0.3250766271787455</v>
       </c>
       <c r="N15">
-        <v>1.224845643648067</v>
+        <v>1.541810992308669</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.094918870157073</v>
+        <v>1.028504636667151</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.008036621919970344</v>
+        <v>0.004810583958253289</v>
       </c>
       <c r="E16">
-        <v>1.539626462842349</v>
+        <v>0.7122664757293364</v>
       </c>
       <c r="F16">
-        <v>2.822129417975219</v>
+        <v>1.132613907146634</v>
       </c>
       <c r="G16">
-        <v>3.040900323260161</v>
+        <v>1.072025710450049</v>
       </c>
       <c r="H16">
-        <v>1.461853876643318</v>
+        <v>0.8130700046678214</v>
       </c>
       <c r="I16">
-        <v>0.1800472743942976</v>
+        <v>0.7427132176295759</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.049520752852033</v>
+        <v>0.3803092943152819</v>
       </c>
       <c r="M16">
-        <v>0.7303709887306553</v>
+        <v>0.3113695698407355</v>
       </c>
       <c r="N16">
-        <v>1.212246898973518</v>
+        <v>1.539706253256895</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.008087254970746</v>
+        <v>1.004449198251336</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.007568551607512575</v>
+        <v>0.004785723229641548</v>
       </c>
       <c r="E17">
-        <v>1.481981168285984</v>
+        <v>0.6961969924619495</v>
       </c>
       <c r="F17">
-        <v>2.691627048174581</v>
+        <v>1.104744051326009</v>
       </c>
       <c r="G17">
-        <v>2.897706145581964</v>
+        <v>1.040711135903848</v>
       </c>
       <c r="H17">
-        <v>1.397232892610077</v>
+        <v>0.8006618104291476</v>
       </c>
       <c r="I17">
-        <v>0.1883712877179828</v>
+        <v>0.7479821651971745</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.003483579568496</v>
+        <v>0.3682739842500098</v>
       </c>
       <c r="M17">
-        <v>0.6993085722047496</v>
+        <v>0.302980161960555</v>
       </c>
       <c r="N17">
-        <v>1.204910065007724</v>
+        <v>1.538571018624168</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.95829248574023</v>
+        <v>0.99063441683478</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.00730983356371695</v>
+        <v>0.004772263958983558</v>
       </c>
       <c r="E18">
-        <v>1.449006683859096</v>
+        <v>0.6869402847043062</v>
       </c>
       <c r="F18">
-        <v>2.617411283640251</v>
+        <v>1.088790399745136</v>
       </c>
       <c r="G18">
-        <v>2.816277903565265</v>
+        <v>1.022770182606678</v>
       </c>
       <c r="H18">
-        <v>1.360528797689085</v>
+        <v>0.793581882515781</v>
       </c>
       <c r="I18">
-        <v>0.1932771736313583</v>
+        <v>0.7510601570011222</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9771493721072488</v>
+        <v>0.3613611334388622</v>
       </c>
       <c r="M18">
-        <v>0.6815138835253904</v>
+        <v>0.2981619831015507</v>
       </c>
       <c r="N18">
-        <v>1.200830661707258</v>
+        <v>1.537975532370808</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.941457159782004</v>
+        <v>0.9859606461784551</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.007223952883180118</v>
+        <v>0.004767850093760018</v>
       </c>
       <c r="E19">
-        <v>1.437871350844347</v>
+        <v>0.6838037201289069</v>
       </c>
       <c r="F19">
-        <v>2.592421766788789</v>
+        <v>1.083401816272925</v>
       </c>
       <c r="G19">
-        <v>2.788860582181172</v>
+        <v>1.016707691746234</v>
       </c>
       <c r="H19">
-        <v>1.348177662123021</v>
+        <v>0.7911944876799737</v>
       </c>
       <c r="I19">
-        <v>0.1949581211689102</v>
+        <v>0.7521104534436649</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9682567851104409</v>
+        <v>0.3590221982594812</v>
       </c>
       <c r="M19">
-        <v>0.6755006230099738</v>
+        <v>0.2965318693281915</v>
       </c>
       <c r="N19">
-        <v>1.199473258195226</v>
+        <v>1.537783796666233</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.017314979330479</v>
+        <v>1.007007744955558</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.007617270354938199</v>
+        <v>0.004788282512631525</v>
       </c>
       <c r="E20">
-        <v>1.488098352895378</v>
+        <v>0.6979090609260936</v>
       </c>
       <c r="F20">
-        <v>2.705430128973006</v>
+        <v>1.107702927467329</v>
       </c>
       <c r="G20">
-        <v>2.912851037299447</v>
+        <v>1.04403732531722</v>
       </c>
       <c r="H20">
-        <v>1.404063026011499</v>
+        <v>0.8019767835075413</v>
       </c>
       <c r="I20">
-        <v>0.1874728621755608</v>
+        <v>0.7474163663955196</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.008369001347205</v>
+        <v>0.3695541757395802</v>
       </c>
       <c r="M20">
-        <v>0.7026076703122968</v>
+        <v>0.3038724860234154</v>
       </c>
       <c r="N20">
-        <v>1.205676458851016</v>
+        <v>1.538685921869742</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.274052228574249</v>
+        <v>1.07797550094125</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.009071174379780444</v>
+        <v>0.004867046671428454</v>
       </c>
       <c r="E21">
-        <v>1.65917592036476</v>
+        <v>0.7451344945985028</v>
       </c>
       <c r="F21">
-        <v>3.09574483271038</v>
+        <v>1.190268390522249</v>
       </c>
       <c r="G21">
-        <v>3.341173772339062</v>
+        <v>1.136707545075865</v>
       </c>
       <c r="H21">
-        <v>1.597649678666869</v>
+        <v>0.8388864702052672</v>
       </c>
       <c r="I21">
-        <v>0.1637649813028226</v>
+        <v>0.7322119833057696</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.14496939604544</v>
+        <v>0.4050542814241567</v>
       </c>
       <c r="M21">
-        <v>0.7945843267915365</v>
+        <v>0.3286214881941163</v>
       </c>
       <c r="N21">
-        <v>1.22822257896982</v>
+        <v>1.542402481727379</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.443453954433835</v>
+        <v>1.124541159041257</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01013694741580196</v>
+        <v>0.004926241327463998</v>
       </c>
       <c r="E22">
-        <v>1.773087039531802</v>
+        <v>0.7758755577492025</v>
       </c>
       <c r="F22">
-        <v>3.36000397518842</v>
+        <v>1.244924224364951</v>
       </c>
       <c r="G22">
-        <v>3.631255688616619</v>
+        <v>1.197916838867741</v>
       </c>
       <c r="H22">
-        <v>1.729167726747363</v>
+        <v>0.8635233178192152</v>
       </c>
       <c r="I22">
-        <v>0.149416464816607</v>
+        <v>0.7226986087058105</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.235836447389175</v>
+        <v>0.4283409497535899</v>
       </c>
       <c r="M22">
-        <v>0.8554765831060962</v>
+        <v>0.3448593954928469</v>
       </c>
       <c r="N22">
-        <v>1.244286533197624</v>
+        <v>1.545339905221823</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.352878891302282</v>
+        <v>1.099671597876466</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.009556371243675699</v>
+        <v>0.004893930243767386</v>
       </c>
       <c r="E23">
-        <v>1.71207225573545</v>
+        <v>0.7594797285815531</v>
       </c>
       <c r="F23">
-        <v>3.218039029878099</v>
+        <v>1.215689114887255</v>
       </c>
       <c r="G23">
-        <v>3.475408008017439</v>
+        <v>1.165188518577764</v>
       </c>
       <c r="H23">
-        <v>1.658471154257853</v>
+        <v>0.8503267641458478</v>
       </c>
       <c r="I23">
-        <v>0.1569648490951003</v>
+        <v>0.7277372613881399</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.187177768566528</v>
+        <v>0.4159045948300957</v>
       </c>
       <c r="M23">
-        <v>0.822898386203633</v>
+        <v>0.3361872015006142</v>
       </c>
       <c r="N23">
-        <v>1.235587416455573</v>
+        <v>1.543725784620861</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.013142736093243</v>
+        <v>1.005850979176671</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.007595212501623649</v>
+        <v>0.0047871228673948</v>
       </c>
       <c r="E24">
-        <v>1.485332259980481</v>
+        <v>0.6971350913090362</v>
       </c>
       <c r="F24">
-        <v>2.699187244813345</v>
+        <v>1.106365004494734</v>
       </c>
       <c r="G24">
-        <v>2.906001260250406</v>
+        <v>1.042533361496453</v>
       </c>
       <c r="H24">
-        <v>1.400973738340639</v>
+        <v>0.8013821169689663</v>
       </c>
       <c r="I24">
-        <v>0.1878786666627086</v>
+        <v>0.7476720120343927</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.006159890490324</v>
+        <v>0.3689753812072354</v>
       </c>
       <c r="M24">
-        <v>0.7011159517522856</v>
+        <v>0.3034690507186468</v>
       </c>
       <c r="N24">
-        <v>1.205329541197031</v>
+        <v>1.538633795986854</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.652230873459928</v>
+        <v>0.9054662701643679</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.005872755441682642</v>
+        <v>0.004703889204547451</v>
       </c>
       <c r="E25">
-        <v>1.247507174217716</v>
+        <v>0.6293516832676858</v>
       </c>
       <c r="F25">
-        <v>2.171169587795674</v>
+        <v>0.9913514011765017</v>
       </c>
       <c r="G25">
-        <v>2.326714229957105</v>
+        <v>0.9129093644720285</v>
       </c>
       <c r="H25">
-        <v>1.140605579108239</v>
+        <v>0.7507598203254418</v>
       </c>
       <c r="I25">
-        <v>0.2256968229109013</v>
+        <v>0.7709876630632353</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8163248963891192</v>
+        <v>0.318719055786147</v>
       </c>
       <c r="M25">
-        <v>0.5724287299706816</v>
+        <v>0.2684524634247083</v>
       </c>
       <c r="N25">
-        <v>1.178026351823092</v>
+        <v>1.535340482427529</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_90/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_90/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8322655858124506</v>
+        <v>1.389901333080331</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00466880969363892</v>
+        <v>0.004848700918451243</v>
       </c>
       <c r="E2">
-        <v>0.5789671946912733</v>
+        <v>1.076100366457169</v>
       </c>
       <c r="F2">
-        <v>0.9090700550331974</v>
+        <v>1.80232093210725</v>
       </c>
       <c r="G2">
-        <v>0.8196547599940516</v>
+        <v>1.922028713728622</v>
       </c>
       <c r="H2">
-        <v>0.7153065298483909</v>
+        <v>0.9600010243911186</v>
       </c>
       <c r="I2">
-        <v>0.7897106584390654</v>
+        <v>0.2569542662301254</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2820181567121693</v>
+        <v>0.6798563587620805</v>
       </c>
       <c r="M2">
-        <v>0.2429056420267983</v>
+        <v>0.4793152545994914</v>
       </c>
       <c r="N2">
-        <v>1.534823580371238</v>
+        <v>1.162130257309173</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.783107803365084</v>
+        <v>1.213659574016873</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004660741958552705</v>
+        <v>0.004269199014794722</v>
       </c>
       <c r="E3">
-        <v>0.5445172120720798</v>
+        <v>0.9613975943744322</v>
       </c>
       <c r="F3">
-        <v>0.8547575287720264</v>
+        <v>1.561732660174187</v>
       </c>
       <c r="G3">
-        <v>0.7577624574712445</v>
+        <v>1.657976721127767</v>
       </c>
       <c r="H3">
-        <v>0.6923911283652444</v>
+        <v>0.8429231928913623</v>
       </c>
       <c r="I3">
-        <v>0.8033681632161898</v>
+        <v>0.2800736809292204</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.257329694569421</v>
+        <v>0.5888612255124315</v>
       </c>
       <c r="M3">
-        <v>0.225739417751349</v>
+        <v>0.4169521434531873</v>
       </c>
       <c r="N3">
-        <v>1.535672379390149</v>
+        <v>1.153809226534207</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7531503350731725</v>
+        <v>1.106037372534189</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004663326268536494</v>
+        <v>0.003959319157566199</v>
       </c>
       <c r="E4">
-        <v>0.5232130336073624</v>
+        <v>0.8914548522525081</v>
       </c>
       <c r="F4">
-        <v>0.8221097482335011</v>
+        <v>1.417765809755579</v>
       </c>
       <c r="G4">
-        <v>0.7203873233417255</v>
+        <v>1.499903837154193</v>
       </c>
       <c r="H4">
-        <v>0.6788620256523643</v>
+        <v>0.7732007345350951</v>
       </c>
       <c r="I4">
-        <v>0.8122311290833917</v>
+        <v>0.2951659232779331</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2422605457202138</v>
+        <v>0.5335610278740717</v>
       </c>
       <c r="M4">
-        <v>0.2152721607178805</v>
+        <v>0.3789451662210652</v>
       </c>
       <c r="N4">
-        <v>1.536788252829467</v>
+        <v>1.149857359224129</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7409998991072939</v>
+        <v>1.062306689364419</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004666244512929296</v>
+        <v>0.003843194169068198</v>
       </c>
       <c r="E5">
-        <v>0.5144931407772759</v>
+        <v>0.8630438993310321</v>
       </c>
       <c r="F5">
-        <v>0.8089797074441236</v>
+        <v>1.359925327533119</v>
       </c>
       <c r="G5">
-        <v>0.7053120244728746</v>
+        <v>1.4363765727621</v>
       </c>
       <c r="H5">
-        <v>0.6734839374936996</v>
+        <v>0.7452706739501025</v>
       </c>
       <c r="I5">
-        <v>0.8159627345177549</v>
+        <v>0.3015334782268733</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2361422577095738</v>
+        <v>0.5111474949017776</v>
       </c>
       <c r="M5">
-        <v>0.2110251354267731</v>
+        <v>0.3635177071127984</v>
       </c>
       <c r="N5">
-        <v>1.537393068067516</v>
+        <v>1.148530778203039</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7389858218823235</v>
+        <v>1.055052246337112</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004666840850314102</v>
+        <v>0.003824486751467404</v>
       </c>
       <c r="E6">
-        <v>0.5130428949890131</v>
+        <v>0.8583309571198257</v>
       </c>
       <c r="F6">
-        <v>0.806809939610929</v>
+        <v>1.350367681954125</v>
       </c>
       <c r="G6">
-        <v>0.7028181000219149</v>
+        <v>1.425877969689225</v>
       </c>
       <c r="H6">
-        <v>0.6725990449261303</v>
+        <v>0.7406603402625649</v>
       </c>
       <c r="I6">
-        <v>0.8165896013583485</v>
+        <v>0.3026037028490052</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2351276794387331</v>
+        <v>0.5074324926048206</v>
       </c>
       <c r="M6">
-        <v>0.2103210397090436</v>
+        <v>0.3609593562007731</v>
       </c>
       <c r="N6">
-        <v>1.53750257823539</v>
+        <v>1.148327442169119</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7529862363427071</v>
+        <v>1.105447122417587</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004663358113329963</v>
+        <v>0.003957713688606646</v>
       </c>
       <c r="E7">
-        <v>0.5230955891507136</v>
+        <v>0.8910713609189855</v>
       </c>
       <c r="F7">
-        <v>0.8219319691251314</v>
+        <v>1.416982551178364</v>
       </c>
       <c r="G7">
-        <v>0.7201833865125877</v>
+        <v>1.499043653192217</v>
       </c>
       <c r="H7">
-        <v>0.6787889489579015</v>
+        <v>0.7728221844517407</v>
       </c>
       <c r="I7">
-        <v>0.8122809696150544</v>
+        <v>0.2952509287870599</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2421779412406551</v>
+        <v>0.5332582857888468</v>
       </c>
       <c r="M7">
-        <v>0.2152148088891437</v>
+        <v>0.3787368739908104</v>
       </c>
       <c r="N7">
-        <v>1.536795801158391</v>
+        <v>1.149838328395418</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8152695859491246</v>
+        <v>1.328996459578292</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004664445081456137</v>
+        <v>0.004638467207465524</v>
       </c>
       <c r="E8">
-        <v>0.5671202595685401</v>
+        <v>1.036430578734809</v>
       </c>
       <c r="F8">
-        <v>0.8901965716210896</v>
+        <v>1.718512910038655</v>
       </c>
       <c r="G8">
-        <v>0.7981827604934324</v>
+        <v>1.830059080633447</v>
       </c>
       <c r="H8">
-        <v>0.7072924406344896</v>
+        <v>0.9191446233531906</v>
       </c>
       <c r="I8">
-        <v>0.7943206509173732</v>
+        <v>0.2647346407499418</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2734869345614328</v>
+        <v>0.6483489079295879</v>
       </c>
       <c r="M8">
-        <v>0.2369716819273222</v>
+        <v>0.4577466815050144</v>
       </c>
       <c r="N8">
-        <v>1.534993135342262</v>
+        <v>1.159016514987144</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.939171220586644</v>
+        <v>1.773190920206787</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004727769982135754</v>
+        <v>0.006409418887265872</v>
       </c>
       <c r="E9">
-        <v>0.6522575607046974</v>
+        <v>1.326917719427684</v>
       </c>
       <c r="F9">
-        <v>1.029714146113022</v>
+        <v>2.345492786171164</v>
       </c>
       <c r="G9">
-        <v>0.9562260061970278</v>
+        <v>2.517956285983672</v>
       </c>
       <c r="H9">
-        <v>0.7675261763798176</v>
+        <v>1.226351608960101</v>
       </c>
       <c r="I9">
-        <v>0.7628918429592026</v>
+        <v>0.2124003720992853</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3356003118632316</v>
+        <v>0.8796744504686842</v>
       </c>
       <c r="M9">
-        <v>0.2802112171940792</v>
+        <v>0.615482008846854</v>
       </c>
       <c r="N9">
-        <v>1.536154608198061</v>
+        <v>1.186545692264474</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.031252393707121</v>
+        <v>2.104847999727497</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.004813535364398547</v>
+        <v>0.008091524117673998</v>
       </c>
       <c r="E10">
-        <v>0.714098226033272</v>
+        <v>1.546230312410927</v>
       </c>
       <c r="F10">
-        <v>1.135804447183034</v>
+        <v>2.837140425866863</v>
       </c>
       <c r="G10">
-        <v>1.075608514509952</v>
+        <v>3.057372053833745</v>
       </c>
       <c r="H10">
-        <v>0.814493605582129</v>
+        <v>1.469293216413178</v>
       </c>
       <c r="I10">
-        <v>0.742118425336395</v>
+        <v>0.1791137583824467</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3816839008875093</v>
+        <v>1.054794531453382</v>
       </c>
       <c r="M10">
-        <v>0.312327830058436</v>
+        <v>0.733925582486556</v>
       </c>
       <c r="N10">
-        <v>1.539843567417293</v>
+        <v>1.213103381284768</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.073366075168735</v>
+        <v>2.257326989534931</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.004861496786407571</v>
+        <v>0.008970601642928955</v>
       </c>
       <c r="E11">
-        <v>0.7420815639944749</v>
+        <v>1.647976040597754</v>
       </c>
       <c r="F11">
-        <v>1.184878013289932</v>
+        <v>3.069946152650971</v>
       </c>
       <c r="G11">
-        <v>1.130665385245834</v>
+        <v>3.312858385497378</v>
       </c>
       <c r="H11">
-        <v>0.8364649156988264</v>
+        <v>1.584828724168744</v>
       </c>
       <c r="I11">
-        <v>0.7331725372843154</v>
+        <v>0.1652359718235701</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.402748958035346</v>
+        <v>1.136030145989366</v>
       </c>
       <c r="M11">
-        <v>0.3270140998094249</v>
+        <v>0.7885812715478338</v>
       </c>
       <c r="N11">
-        <v>1.542131968117701</v>
+        <v>1.226685426085538</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.089345262696213</v>
+        <v>2.31533961115872</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.004880979987280654</v>
+        <v>0.009322996688418073</v>
       </c>
       <c r="E12">
-        <v>0.7526570495825951</v>
+        <v>1.686858567310011</v>
       </c>
       <c r="F12">
-        <v>1.20358009027737</v>
+        <v>3.159654225871208</v>
       </c>
       <c r="G12">
-        <v>1.151624499239858</v>
+        <v>3.411320767687386</v>
       </c>
       <c r="H12">
-        <v>0.8448731117883312</v>
+        <v>1.629424840646863</v>
       </c>
       <c r="I12">
-        <v>0.7298575782917007</v>
+        <v>0.160176106658299</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4107404674194584</v>
+        <v>1.167061079443386</v>
       </c>
       <c r="M12">
-        <v>0.3325862918456366</v>
+        <v>0.8094100767658432</v>
       </c>
       <c r="N12">
-        <v>1.543085802645749</v>
+        <v>1.232055628448535</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.085902463378602</v>
+        <v>2.302832742743362</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.004876724609626848</v>
+        <v>0.009246178913976166</v>
       </c>
       <c r="E13">
-        <v>0.7503803701751934</v>
+        <v>1.678467568233259</v>
       </c>
       <c r="F13">
-        <v>1.199546937291387</v>
+        <v>3.140260990587677</v>
       </c>
       <c r="G13">
-        <v>1.147105633895649</v>
+        <v>3.390034259523617</v>
       </c>
       <c r="H13">
-        <v>0.8430583194244434</v>
+        <v>1.619780515562638</v>
       </c>
       <c r="I13">
-        <v>0.7305682799032978</v>
+        <v>0.1612569208635408</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4090187014246567</v>
+        <v>1.160365317285937</v>
       </c>
       <c r="M13">
-        <v>0.3313857416469901</v>
+        <v>0.804918001533693</v>
       </c>
       <c r="N13">
-        <v>1.542876503804166</v>
+        <v>1.230888778089593</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.074680062643154</v>
+        <v>2.262094015294167</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.004863073000390017</v>
+        <v>0.008999182603890432</v>
       </c>
       <c r="E14">
-        <v>0.7429520396206613</v>
+        <v>1.651167405717288</v>
       </c>
       <c r="F14">
-        <v>1.186414247500096</v>
+        <v>3.077293977050346</v>
       </c>
       <c r="G14">
-        <v>1.13238747949697</v>
+        <v>3.320922930716449</v>
       </c>
       <c r="H14">
-        <v>0.8371548905508064</v>
+        <v>1.58847996137203</v>
       </c>
       <c r="I14">
-        <v>0.7328983565048155</v>
+        <v>0.1648156962200931</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4034061308350658</v>
+        <v>1.138577427973615</v>
       </c>
       <c r="M14">
-        <v>0.3274723113717073</v>
+        <v>0.790292100303013</v>
       </c>
       <c r="N14">
-        <v>1.542208694476244</v>
+        <v>1.227122620113974</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.067810117055501</v>
+        <v>2.237177114675546</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.004854884100872425</v>
+        <v>0.008850532627640462</v>
       </c>
       <c r="E15">
-        <v>0.7383992160962123</v>
+        <v>1.63449356480406</v>
       </c>
       <c r="F15">
-        <v>1.178385654706375</v>
+        <v>3.038934162542262</v>
       </c>
       <c r="G15">
-        <v>1.123386621517682</v>
+        <v>3.278822052524077</v>
       </c>
       <c r="H15">
-        <v>0.8335503795782984</v>
+        <v>1.569421520071671</v>
       </c>
       <c r="I15">
-        <v>0.7343350626670571</v>
+        <v>0.1670214138924635</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3999701759758523</v>
+        <v>1.125268082837749</v>
       </c>
       <c r="M15">
-        <v>0.3250766271787455</v>
+        <v>0.7813511397136423</v>
       </c>
       <c r="N15">
-        <v>1.541810992308669</v>
+        <v>1.224845643648067</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.028504636667151</v>
+        <v>2.094918870157187</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.004810583958253289</v>
+        <v>0.008036621920073372</v>
       </c>
       <c r="E16">
-        <v>0.7122664757293364</v>
+        <v>1.539626462842378</v>
       </c>
       <c r="F16">
-        <v>1.132613907146634</v>
+        <v>2.822129417975191</v>
       </c>
       <c r="G16">
-        <v>1.072025710450049</v>
+        <v>3.040900323260246</v>
       </c>
       <c r="H16">
-        <v>0.8130700046678214</v>
+        <v>1.461853876643289</v>
       </c>
       <c r="I16">
-        <v>0.7427132176295759</v>
+        <v>0.1800472743943011</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3803092943152819</v>
+        <v>1.049520752852118</v>
       </c>
       <c r="M16">
-        <v>0.3113695698407355</v>
+        <v>0.7303709887306624</v>
       </c>
       <c r="N16">
-        <v>1.539706253256895</v>
+        <v>1.212246898973518</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.004449198251336</v>
+        <v>2.00808725497069</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.004785723229641548</v>
+        <v>0.007568551607395335</v>
       </c>
       <c r="E17">
-        <v>0.6961969924619495</v>
+        <v>1.481981168285984</v>
       </c>
       <c r="F17">
-        <v>1.104744051326009</v>
+        <v>2.691627048174581</v>
       </c>
       <c r="G17">
-        <v>1.040711135903848</v>
+        <v>2.897706145581935</v>
       </c>
       <c r="H17">
-        <v>0.8006618104291476</v>
+        <v>1.397232892609992</v>
       </c>
       <c r="I17">
-        <v>0.7479821651971745</v>
+        <v>0.1883712877179615</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3682739842500098</v>
+        <v>1.003483579568467</v>
       </c>
       <c r="M17">
-        <v>0.302980161960555</v>
+        <v>0.6993085722047496</v>
       </c>
       <c r="N17">
-        <v>1.538571018624168</v>
+        <v>1.204910065007766</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.99063441683478</v>
+        <v>1.958292485740401</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.004772263958983558</v>
+        <v>0.007309833563827084</v>
       </c>
       <c r="E18">
-        <v>0.6869402847043062</v>
+        <v>1.449006683859096</v>
       </c>
       <c r="F18">
-        <v>1.088790399745136</v>
+        <v>2.617411283640251</v>
       </c>
       <c r="G18">
-        <v>1.022770182606678</v>
+        <v>2.816277903565265</v>
       </c>
       <c r="H18">
-        <v>0.793581882515781</v>
+        <v>1.360528797689085</v>
       </c>
       <c r="I18">
-        <v>0.7510601570011222</v>
+        <v>0.1932771736313565</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3613611334388622</v>
+        <v>0.9771493721072204</v>
       </c>
       <c r="M18">
-        <v>0.2981619831015507</v>
+        <v>0.6815138835253904</v>
       </c>
       <c r="N18">
-        <v>1.537975532370808</v>
+        <v>1.200830661707244</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9859606461784551</v>
+        <v>1.941457159781891</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.004767850093760018</v>
+        <v>0.007223952883173013</v>
       </c>
       <c r="E19">
-        <v>0.6838037201289069</v>
+        <v>1.437871350844333</v>
       </c>
       <c r="F19">
-        <v>1.083401816272925</v>
+        <v>2.592421766788817</v>
       </c>
       <c r="G19">
-        <v>1.016707691746234</v>
+        <v>2.788860582181201</v>
       </c>
       <c r="H19">
-        <v>0.7911944876799737</v>
+        <v>1.348177662122907</v>
       </c>
       <c r="I19">
-        <v>0.7521104534436649</v>
+        <v>0.1949581211689209</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3590221982594812</v>
+        <v>0.9682567851103272</v>
       </c>
       <c r="M19">
-        <v>0.2965318693281915</v>
+        <v>0.6755006230099809</v>
       </c>
       <c r="N19">
-        <v>1.537783796666233</v>
+        <v>1.199473258195212</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.007007744955558</v>
+        <v>2.017314979330479</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.004788282512631525</v>
+        <v>0.007617270354934647</v>
       </c>
       <c r="E20">
-        <v>0.6979090609260936</v>
+        <v>1.488098352895349</v>
       </c>
       <c r="F20">
-        <v>1.107702927467329</v>
+        <v>2.705430128973006</v>
       </c>
       <c r="G20">
-        <v>1.04403732531722</v>
+        <v>2.912851037299447</v>
       </c>
       <c r="H20">
-        <v>0.8019767835075413</v>
+        <v>1.404063026011499</v>
       </c>
       <c r="I20">
-        <v>0.7474163663955196</v>
+        <v>0.1874728621755599</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3695541757395802</v>
+        <v>1.008369001347091</v>
       </c>
       <c r="M20">
-        <v>0.3038724860234154</v>
+        <v>0.7026076703123039</v>
       </c>
       <c r="N20">
-        <v>1.538685921869742</v>
+        <v>1.205676458851016</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.07797550094125</v>
+        <v>2.274052228574135</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.004867046671428454</v>
+        <v>0.009071174379677416</v>
       </c>
       <c r="E21">
-        <v>0.7451344945985028</v>
+        <v>1.65917592036476</v>
       </c>
       <c r="F21">
-        <v>1.190268390522249</v>
+        <v>3.09574483271038</v>
       </c>
       <c r="G21">
-        <v>1.136707545075865</v>
+        <v>3.34117377233909</v>
       </c>
       <c r="H21">
-        <v>0.8388864702052672</v>
+        <v>1.597649678666727</v>
       </c>
       <c r="I21">
-        <v>0.7322119833057696</v>
+        <v>0.1637649813028181</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4050542814241567</v>
+        <v>1.144969396045468</v>
       </c>
       <c r="M21">
-        <v>0.3286214881941163</v>
+        <v>0.7945843267915293</v>
       </c>
       <c r="N21">
-        <v>1.542402481727379</v>
+        <v>1.228222578969806</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.124541159041257</v>
+        <v>2.443453954433778</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.004926241327463998</v>
+        <v>0.01013694741613236</v>
       </c>
       <c r="E22">
-        <v>0.7758755577492025</v>
+        <v>1.773087039531816</v>
       </c>
       <c r="F22">
-        <v>1.244924224364951</v>
+        <v>3.360003975188448</v>
       </c>
       <c r="G22">
-        <v>1.197916838867741</v>
+        <v>3.631255688616619</v>
       </c>
       <c r="H22">
-        <v>0.8635233178192152</v>
+        <v>1.729167726747249</v>
       </c>
       <c r="I22">
-        <v>0.7226986087058105</v>
+        <v>0.1494164648165928</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4283409497535899</v>
+        <v>1.235836447389289</v>
       </c>
       <c r="M22">
-        <v>0.3448593954928469</v>
+        <v>0.8554765831060962</v>
       </c>
       <c r="N22">
-        <v>1.545339905221823</v>
+        <v>1.244286533197567</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.099671597876466</v>
+        <v>2.352878891302112</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.004893930243767386</v>
+        <v>0.009556371243675699</v>
       </c>
       <c r="E23">
-        <v>0.7594797285815531</v>
+        <v>1.712072255735507</v>
       </c>
       <c r="F23">
-        <v>1.215689114887255</v>
+        <v>3.218039029878099</v>
       </c>
       <c r="G23">
-        <v>1.165188518577764</v>
+        <v>3.475408008017467</v>
       </c>
       <c r="H23">
-        <v>0.8503267641458478</v>
+        <v>1.658471154257853</v>
       </c>
       <c r="I23">
-        <v>0.7277372613881399</v>
+        <v>0.1569648490950986</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4159045948300957</v>
+        <v>1.187177768566528</v>
       </c>
       <c r="M23">
-        <v>0.3361872015006142</v>
+        <v>0.8228983862036472</v>
       </c>
       <c r="N23">
-        <v>1.543725784620861</v>
+        <v>1.235587416455544</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.005850979176671</v>
+        <v>2.013142736093243</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0047871228673948</v>
+        <v>0.007595212501733783</v>
       </c>
       <c r="E24">
-        <v>0.6971350913090362</v>
+        <v>1.48533225998051</v>
       </c>
       <c r="F24">
-        <v>1.106365004494734</v>
+        <v>2.699187244813345</v>
       </c>
       <c r="G24">
-        <v>1.042533361496453</v>
+        <v>2.906001260250463</v>
       </c>
       <c r="H24">
-        <v>0.8013821169689663</v>
+        <v>1.400973738340582</v>
       </c>
       <c r="I24">
-        <v>0.7476720120343927</v>
+        <v>0.1878786666626917</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3689753812072354</v>
+        <v>1.00615989049038</v>
       </c>
       <c r="M24">
-        <v>0.3034690507186468</v>
+        <v>0.7011159517522998</v>
       </c>
       <c r="N24">
-        <v>1.538633795986854</v>
+        <v>1.205329541197031</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9054662701643679</v>
+        <v>1.652230873459843</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.004703889204547451</v>
+        <v>0.005872755441576061</v>
       </c>
       <c r="E25">
-        <v>0.6293516832676858</v>
+        <v>1.247507174217716</v>
       </c>
       <c r="F25">
-        <v>0.9913514011765017</v>
+        <v>2.171169587795674</v>
       </c>
       <c r="G25">
-        <v>0.9129093644720285</v>
+        <v>2.326714229957076</v>
       </c>
       <c r="H25">
-        <v>0.7507598203254418</v>
+        <v>1.140605579108268</v>
       </c>
       <c r="I25">
-        <v>0.7709876630632353</v>
+        <v>0.2256968229109013</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.318719055786147</v>
+        <v>0.8163248963890908</v>
       </c>
       <c r="M25">
-        <v>0.2684524634247083</v>
+        <v>0.5724287299706887</v>
       </c>
       <c r="N25">
-        <v>1.535340482427529</v>
+        <v>1.178026351823135</v>
       </c>
       <c r="O25">
         <v>0</v>
